--- a/Manual/COW/secondary-axis/PMI 5 year.xlsx
+++ b/Manual/COW/secondary-axis/PMI 5 year.xlsx
@@ -1,21 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Advait Lath\Documents\nimf-tracker-main\Manual\COW\secondary-axis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B608E0-A95B-4EC6-B8DC-573AC99C6FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D0825C-512E-49B2-B96F-0170C0481406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -230,10 +242,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mmmm/yyyy"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -259,8 +280,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -599,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="G9" sqref="G9:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1469,7 +1491,22 @@
         <v>57.6</v>
       </c>
     </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>44712</v>
+      </c>
+      <c r="B66">
+        <v>54.6</v>
+      </c>
+      <c r="C66">
+        <v>58.9</v>
+      </c>
+      <c r="D66">
+        <v>58.3</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>